--- a/17. Análise dos Eventos Para Cada Cenário.xlsx
+++ b/17. Análise dos Eventos Para Cada Cenário.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <r>
       <t>Externo</t>
@@ -253,9 +253,6 @@
     <t>Atendente valida o pedido.</t>
   </si>
   <si>
-    <t>x(10)</t>
-  </si>
-  <si>
     <t>Realizar Serviço</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>Atendente descarta o produto</t>
   </si>
   <si>
-    <t>x(13)</t>
-  </si>
-  <si>
     <t>Fornecedor envia orçamento</t>
   </si>
   <si>
@@ -287,6 +281,15 @@
   </si>
   <si>
     <t>Gerente realiza pagamento</t>
+  </si>
+  <si>
+    <t>Gerente cobra fornecedor</t>
+  </si>
+  <si>
+    <t>x(12)</t>
+  </si>
+  <si>
+    <t>x(14)</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -397,21 +400,220 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFF2F2F2"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF2F2F2"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF2F2F2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF2F2F2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -419,7 +621,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -430,7 +634,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -442,7 +648,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -450,12 +656,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -463,14 +671,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -478,166 +701,20 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -649,181 +726,203 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1128,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1144,333 +1243,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="2"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="51"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="9">
+      <c r="A4" s="53"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="51"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="11">
+      <c r="A5" s="53"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="51"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="12">
+      <c r="A6" s="53"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="44"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="55"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="5">
+      <c r="B8" s="66"/>
+      <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="55"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="5">
+      <c r="B9" s="66"/>
+      <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="55"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="13">
+      <c r="B10" s="66"/>
+      <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="56"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="20">
+      <c r="A11" s="55"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="16">
         <v>9</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22" t="s">
+      <c r="D11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="45"/>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A12" s="55"/>
+      <c r="B12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10">
         <v>10</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
+      <c r="D12" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="12">
+      <c r="A13" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="8">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="A14" s="57"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="8">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" ht="42">
-      <c r="A14" s="41" t="s">
+      <c r="B15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="28">
+        <v>13</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="33">
-        <v>12</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A15" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="19">
-        <v>13</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="15">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="8">
+        <v>15</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="12">
-        <v>14</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="29"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>

--- a/17. Análise dos Eventos Para Cada Cenário.xlsx
+++ b/17. Análise dos Eventos Para Cada Cenário.xlsx
@@ -864,6 +864,48 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -881,48 +923,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1244,25 +1244,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="41"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="48"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1289,10 +1289,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6">
@@ -1311,8 +1311,8 @@
       <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="53"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="6">
         <v>2</v>
       </c>
@@ -1329,8 +1329,8 @@
       <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="53"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="7">
         <v>3</v>
       </c>
@@ -1347,8 +1347,8 @@
       <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="53"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -1365,10 +1365,10 @@
       <c r="J6" s="44"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3">
@@ -1387,8 +1387,8 @@
       <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="55"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="3">
         <v>6</v>
       </c>
@@ -1405,8 +1405,8 @@
       <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="55"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="3">
         <v>7</v>
       </c>
@@ -1423,8 +1423,8 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="55"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="9">
         <v>8</v>
       </c>
@@ -1441,8 +1441,8 @@
       <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="55"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="16">
         <v>9</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A12" s="55"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="36" t="s">
         <v>36</v>
       </c>
@@ -1479,10 +1479,10 @@
       <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="53" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="8">
@@ -1501,8 +1501,8 @@
       <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="8">
         <v>12</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="51" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -1563,7 +1563,7 @@
       <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="36" t="s">
         <v>36</v>
       </c>
@@ -1584,17 +1584,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B7:B11"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
